--- a/619702-XLS-ENG.xlsx
+++ b/619702-XLS-ENG.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snotosoehardjo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD31C97-7805-4CBB-8AC4-EB18A4A00C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Copyright" sheetId="2" r:id="rId1"/>
-    <sheet name="Data Dictionary" sheetId="3" r:id="rId2"/>
-    <sheet name="Switchbacks" sheetId="1" r:id="rId3"/>
+    <sheet name="Switchbacks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="14">
   <si>
     <t>city_id</t>
   </si>
@@ -62,107 +61,16 @@
     <t>5 mins</t>
   </si>
   <si>
-    <t>Harvard Business School Case  619-003</t>
-  </si>
-  <si>
-    <t>Courseware: 619-702</t>
-  </si>
-  <si>
-    <t>This spreadsheet supplements "Innovation at Uber: The Launch of Express POOL" (HBS case No. 619-003) and contains the following tabs:</t>
-  </si>
-  <si>
-    <t>"Data Dictionary" defines each column in the "Switchbacks" tab.</t>
-  </si>
-  <si>
-    <t>Data Dictionary</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>"Switchbacks" Tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start date and time for the 160-minute time period of the current observation. </t>
-  </si>
-  <si>
-    <t>This variable takes on two possible values: "2 mins" if the matching algorithm let riders wait up to 2 minutes during the current time period; "5 mins" if the matching algorithm let riders wait up to 5 minutes during the current time period.</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>This variable takes on two possible values: "TRUE" if wait_time equals "5 mins"; "FALSE" if wait_time equals "2 mins".</t>
-  </si>
-  <si>
-    <t>This variable takes on two possible values: "TRUE" if the time period happens during rush hours (7-9:40AM or 3-5:40PM), "FALSE" otherwise.</t>
-  </si>
-  <si>
-    <t>Total number of requested trips that were cancelled by the rider in the current time period.</t>
-  </si>
-  <si>
-    <t>Total number of POOL trips completed in the current time period. Each matched ride request is a separate trip.</t>
-  </si>
-  <si>
-    <t>Total number of Express POOL trips completed in the current time period. Each matched ride request is a separate trip.</t>
-  </si>
-  <si>
-    <t>Location where the experiment took place. In the data it is always equal to "Boston."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total dollars paid to drivers for trips completed in the current time period. This is equal to Uber's total costs for matching trips in the current time period. </t>
-  </si>
-  <si>
-    <t>This courseware  was prepared solely as the basis for class discussion. Copyright © 2018, 2020 President and Fellows of Harvard College. To order copies or request permission to reproduce materials, call 1-800-545-7685, write Harvard Business School Publishing, Boston, MA 02163, or go to www.hbsp.harvard.edu/educators. This publication may not be digitized, photocopied, or otherwise reproduced, posted, or transmitted, without the permission of Harvard Business School.</t>
-  </si>
-  <si>
-    <t>REV: August 6, 2020</t>
-  </si>
-  <si>
-    <t>"Switchbacks" provides simulated data from a switchback experiment run in Boston between 2/19/2018 and 3/5/2018. In the experiment, each day was divided into 9 time periods of 160 minutes each. Every 160 minutes, the Express POOL matching algorithm switched between letting riders wait up to 2 minutes (control time periods) and up to 5 minutes (treatment time periods) before being matched to a particular driver. The data present results on matches and driver earnings for each of the experimental time periods.</t>
-  </si>
-  <si>
     <t>trips_express</t>
-  </si>
-  <si>
-    <t>Number of completed trips during the current time period that were paired with at least another rider for part of the trip. Each matched ride request is a separate trip, so two separate riders matched together would count as two matches.</t>
-  </si>
-  <si>
-    <t>Number of completed trips during the current time period that were paired with at least two other riders for part of the trip. Each matched ride request is a separate trip, so three separate riders matched together would count as three double matches.</t>
-  </si>
-  <si>
-    <t>Innovation at Uber: The Launch of Express POOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -291,22 +199,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,80 +503,51 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1039,290 +902,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.5" customWidth="1"/>
-    <col min="7" max="9" width="8.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="61" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="90.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1356,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
